--- a/PortfolioData_Answers.xlsx
+++ b/PortfolioData_Answers.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdcui/portfolio_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CF08A9-725E-3D48-AF34-73E8FE841D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53163B8-9B13-A24F-AD54-152FA5FD1245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12260" yWindow="800" windowWidth="25620" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="520" windowWidth="25620" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -597,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -702,14 +711,12 @@
         <v>8</v>
       </c>
       <c r="B7" s="8">
-        <v>7.7279999999999996E-3</v>
+        <v>3.1189999999999998E-3</v>
       </c>
       <c r="C7" s="8">
-        <v>7.5399999999999998E-3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>4.6090000000000002E-3</v>
-      </c>
+        <v>2.93099999999999E-3</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
@@ -718,28 +725,24 @@
         <v>9</v>
       </c>
       <c r="B8" s="8">
-        <v>9.2735999999999999E-2</v>
+        <v>3.7428000000000003E-2</v>
       </c>
       <c r="C8" s="8">
-        <v>9.0480000000000005E-2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5.5308000000000003E-2</v>
-      </c>
+        <v>3.5171999999999898E-2</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="19">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8">
-        <v>6.1053373180945903E-3</v>
+        <v>2.44126425207058E-3</v>
       </c>
       <c r="C9" s="8">
-        <v>5.9851300245594699E-3</v>
-      </c>
-      <c r="D9" s="8">
-        <v>3.6551498792876101E-3</v>
-      </c>
+        <v>3.6526687797715498E-3</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="19">
@@ -747,14 +750,12 @@
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>7.5774968855201394E-2</v>
+        <v>2.9691734434132699E-2</v>
       </c>
       <c r="C10" s="8">
-        <v>7.4233606741469699E-2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>4.4754398700104003E-2</v>
-      </c>
+        <v>4.4723406727732E-2</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
@@ -762,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="8">
-        <v>4.2115591835798299E-2</v>
+        <v>5.9995E-2</v>
       </c>
       <c r="C11" s="8">
-        <v>4.1595106835493202E-2</v>
+        <v>5.9339000000000003E-2</v>
       </c>
       <c r="D11" s="8">
-        <v>3.2454966620366898E-2</v>
+        <v>4.6572000000000002E-2</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -777,19 +778,32 @@
         <v>2</v>
       </c>
       <c r="B12" s="8">
-        <v>5.6298000000000001E-2</v>
+        <v>3.6172999999999997E-2</v>
       </c>
       <c r="C12" s="8">
-        <v>5.5132E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4.3199000000000001E-2</v>
-      </c>
+        <v>3.3549000000000002E-2</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="19">
       <c r="A13" s="2"/>
       <c r="G13" s="9"/>
+    </row>
+    <row r="17" spans="1:1" ht="18">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="20" spans="1:1" ht="19">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" ht="19">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="23" spans="1:1" ht="19">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" spans="1:1" ht="19">
+      <c r="A24" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
